--- a/biology/Botanique/Rhipsalis_sulcata/Rhipsalis_sulcata.xlsx
+++ b/biology/Botanique/Rhipsalis_sulcata/Rhipsalis_sulcata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Rhipsalis sulcata est le nom d'une espèce de plante épiphyte et succulente, endémique d'Amérique du Sud, et appartenant à la famille des cactus et du genre Rhipsalis (qui comprend environ 60 espècess et de nombreuses sous-espèces).
 Elle est n'es pas classée espèce menacée ou vulnérable par l'UICN, faute de données, mais comme la plupart des Rhipsalis elle est  menacée par la régression, dégradation fragmentation ou disparition de son habitat (forêt tropicale humide).
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de genre vient d'un mot grec signifiant souple ou jonc tressé, en référence à l'apparence des plantes.
 </t>
@@ -543,7 +557,9 @@
           <t>Origine, aire de répartition, habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la nature, cette espèce est rare ou devenue rare. À l'état sauvage, c'est une espèce endémique de certaines forêts tropicales de l'état d'Espírito Santo au Brésil.
 </t>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Chaque segment (articles) de la tige est côtelé et plus épais et plus long que chez la plupart des autres cactées de ce genre.
 La fleur est blanche.
@@ -607,6 +625,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -632,7 +652,9 @@
           <t>Statut, menace</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La principale menace qui pèse sur l'espèce est la destruction de son habitat (déforestation)
 </t>
